--- a/data/america-do-sul/copa-sul-americana/2022.xlsx
+++ b/data/america-do-sul/copa-sul-americana/2022.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -689,9 +689,19 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Estádio Monumental Virgen de Chapi (Arequipa)</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>60370</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
@@ -738,7 +748,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -747,9 +757,19 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estádio Serra Dourada (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>50049</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -805,9 +825,19 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>12000</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -863,10 +893,22 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>50600</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43191</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>11/08/2022</t>
@@ -916,7 +958,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -997,10 +1039,22 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3919</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>09/08/2022</t>
@@ -1174,7 +1228,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1193,10 +1247,22 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>77011</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52338</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>03/08/2022</t>
@@ -1319,9 +1385,19 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>34000</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -1430,7 +1506,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1440,7 +1516,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1449,19 +1525,9 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Estádio do MorumBIS (São Paulo)</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>77011</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1517,9 +1583,19 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>47090</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1717,9 +1793,19 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>60326</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1775,9 +1861,19 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>50600</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1814,7 +1910,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1950,7 +2046,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1960,7 +2056,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1969,9 +2065,19 @@
       <c r="G24" t="n">
         <v>4</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Estádio San Carlos de Apoquindo (Santiago)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>14768</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -2027,9 +2133,19 @@
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>12000</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -2085,9 +2201,19 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>de Vivar M. D. (Par)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Estádio Deportivo Cáli (Palmira)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>42000</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -2211,9 +2337,19 @@
       <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>41143</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -2269,7 +2405,11 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Loustau P. (Arg)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>Estádio Monumental David Arellano (Santiago)</t>
@@ -2324,7 +2464,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2333,11 +2473,7 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Garay C. (Chi)</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>Gran Parque Central (Montevidéu)</t>
@@ -2392,7 +2528,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2469,10 +2605,14 @@
       <c r="G32" t="n">
         <v>10</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Guerrero G. (Ecu)</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Santa Cruz)</t>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2805,9 +2945,19 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>47090</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -2844,7 +2994,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2999,9 +3149,19 @@
       <c r="G40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Quiroz L. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Estádio Félix Capriles (Cochabamba)</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>35000</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -3125,9 +3285,19 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>40943</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -3523,9 +3693,19 @@
       <c r="G48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>24264</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -3562,7 +3742,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3581,9 +3761,19 @@
       <c r="G49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>77011</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -3639,9 +3829,19 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Burgos J. (Uru)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Estadio Libertadores de América (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>48069</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -3678,7 +3878,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3697,9 +3897,19 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Cunha A. (Uru)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Estádio 15 de Abril (Santa Fe)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>27358</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -3892,8 +4102,14 @@
         <v>0</v>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Vila Belmiro (Santos)</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>16068</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -3949,9 +4165,19 @@
       <c r="G55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Estádio Ciudad de Cumana (Ayacucho)</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>15000</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -4007,9 +4233,19 @@
       <c r="G56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Cajas A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Estadio River Plate (Assunção)</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>6500</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -4065,8 +4301,16 @@
       <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Estádio Antonio Accioly (Goiânia)</t>
+        </is>
+      </c>
       <c r="J57" t="n">
         <v>12500</v>
       </c>
@@ -4125,9 +4369,19 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Herrera Y. (Ven)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>46788</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -4319,9 +4573,19 @@
       <c r="G61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Cartagena J. (Per)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>60326</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -4377,9 +4641,19 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>50600</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -4435,9 +4709,19 @@
       <c r="G63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Congo F. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Estádio Ciudad de Cumana (Ayacucho)</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>15000</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -4562,8 +4846,14 @@
         <v>1</v>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Quito)</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>35258</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -4610,7 +4900,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -4619,9 +4909,19 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>23423</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -4677,9 +4977,19 @@
       <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Estadio Parque del Guairá (Villarrica)</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>12000</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -4716,7 +5026,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4803,16 +5113,8 @@
       <c r="G69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Maza P. (Chi)</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Estádio Banco Pichincha (Guayaquil)</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>59283</v>
       </c>
@@ -4871,9 +5173,19 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>de Vivar M. D. (Par)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>78838</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -4987,9 +5299,19 @@
       <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Estádio Antonio Accioly (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>12500</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -5045,9 +5367,19 @@
       <c r="G73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>24264</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -5171,9 +5503,19 @@
       <c r="G75" t="n">
         <v>4</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Ferreira (Assunção)</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>20000</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -5297,9 +5639,19 @@
       <c r="G77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Guerrero G. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Arena Pantanal (Cuiabá)</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>44000</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -5355,9 +5707,19 @@
       <c r="G78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>César Benítez (Par)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Estadio River Plate (Assunção)</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>6500</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -5413,9 +5775,19 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>59283</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -5539,9 +5911,19 @@
       <c r="G81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>23423</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -5597,9 +5979,19 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>60235</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -5655,9 +6047,19 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>20000</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -5704,7 +6106,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -5713,9 +6115,19 @@
       <c r="G84" t="n">
         <v>3</v>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Estádio Félix Capriles (Cochabamba)</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>35000</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -5771,9 +6183,19 @@
       <c r="G85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mendez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Estádio Regional de Antofagasta (Antofagasta)</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>21178</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -5829,9 +6251,19 @@
       <c r="G86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Menendez A. (Per)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>35258</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -5887,11 +6319,7 @@
       <c r="G87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Garay C. (Chi)</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
           <t>Arena Pantanal (Cuiabá)</t>
@@ -6025,10 +6453,22 @@
       <c r="G89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rodriguez D. (Bol)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Estádio Monumental Virgen de Chapi (Arequipa)</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>60370</v>
+      </c>
+      <c r="K89" t="n">
+        <v>11997</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>27/04/2022</t>
@@ -6083,9 +6523,19 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>23423</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -6132,7 +6582,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6141,9 +6591,19 @@
       <c r="G91" t="n">
         <v>0</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>78838</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -6267,9 +6727,19 @@
       <c r="G93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Hinestroza Romana J. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Ferreira (Assunção)</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>20000</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -6394,14 +6864,8 @@
         <v>1</v>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Estadio Atanasio Girardot (Medellín)</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>40943</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -6574,7 +7038,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6595,7 +7059,9 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>77011</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -6787,9 +7253,19 @@
       <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>46788</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -7049,9 +7525,19 @@
       <c r="G105" t="n">
         <v>2</v>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Vila Belmiro (Santos)</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>16068</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -7107,9 +7593,19 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>20000</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7350,7 +7846,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -7361,9 +7857,7 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>38000</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -7410,7 +7904,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -7487,9 +7981,19 @@
       <c r="G112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>de Vivar M. D. (Par)</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>59283</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -7545,9 +8049,19 @@
       <c r="G113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Per)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Estadio Parque del Guairá (Villarrica)</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>12000</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -7603,19 +8117,9 @@
       <c r="G114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Flávio Rodrigues de Souza (Bra)</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico de la UCV (Caracas)</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>24264</v>
-      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -7807,9 +8311,19 @@
       <c r="G117" t="n">
         <v>3</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Gallo N. (Col)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Estádio Regional de Antofagasta (Antofagasta)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>21178</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -8040,7 +8554,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YuZso7jl-jZm30d2F.png</t>
+          <t>https://static.flashscore.com/res/image/data/YuZso7jl-OS9FbeGg.png</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8059,19 +8573,9 @@
       <c r="G121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Estádio 15 de Abril (Santa Fe)</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>27358</v>
-      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -8265,7 +8769,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Par)</t>
+          <t>Lopez D. (Par)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8525,7 +9029,11 @@
       <c r="G128" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Guerrero G. (Ecu)</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>Estádio Gilberto Parada (Montero)</t>
@@ -8589,7 +9097,11 @@
       <c r="G129" t="n">
         <v>1</v>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
@@ -8653,9 +9165,19 @@
       <c r="G130" t="n">
         <v>0</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estádio Modelo Alberto Spencer (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>42000</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -8711,9 +9233,19 @@
       <c r="G131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Ospina A. (Col)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Estádio Regional de Antofagasta (Antofagasta)</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>21178</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -8773,9 +9305,19 @@
       <c r="G132" t="n">
         <v>0</v>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>44164</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -8831,9 +9373,19 @@
       <c r="G133" t="n">
         <v>0</v>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>24264</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -8889,9 +9441,19 @@
       <c r="G134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Pascual Guerrero (Cáli)</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>37000</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -8951,9 +9513,19 @@
       <c r="G135" t="n">
         <v>1</v>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>41575</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -9009,11 +9581,7 @@
       <c r="G136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Mendez Chavez I. N. (Bol)</t>
-        </is>
-      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
           <t>Estádio Miguel Grau (Callao)</t>
@@ -9145,9 +9713,19 @@
       <c r="G138" t="n">
         <v>0</v>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Estadio de la Universidad Nacional San Agustín (Arequipa)</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>60370</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -9203,9 +9781,19 @@
       <c r="G139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>23423</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -9261,9 +9849,19 @@
       <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Chi)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>44164</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -9455,9 +10053,19 @@
       <c r="G143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estádio Jocay (Manta)</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>22000</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -9513,9 +10121,19 @@
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Uru)</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano de Techo (Bogotá)</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>10000</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -9571,19 +10189,9 @@
       <c r="G145" t="n">
         <v>1</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Arteaga A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Estádio Parque Alfredo Víctor Viera (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>7527</v>
-      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -9639,9 +10247,19 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Estádio Félix Capriles (Cochabamba)</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>35000</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -9697,9 +10315,19 @@
       <c r="G147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Rodriguez D. (Bol)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Estádio Agustín Tovar (Barinas)</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>24234</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9755,9 +10383,19 @@
       <c r="G148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>44164</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -9813,7 +10451,11 @@
       <c r="G149" t="n">
         <v>2</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Vera M. (Ecu)</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>Estádio Santa Laura (Santiago)</t>
@@ -9877,7 +10519,11 @@
       <c r="G150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>Estádio Huancayo (Huancayo)</t>
@@ -10009,9 +10655,19 @@
       <c r="G152" t="n">
         <v>2</v>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Estádio Bellavista (Ambato)</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>16467</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -10135,9 +10791,19 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Estadio Inca Garcilaso de la Vega (Cusco)</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>42000</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10193,9 +10859,19 @@
       <c r="G155" t="n">
         <v>0</v>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Quiroz L. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Estadio Municipal Nelson Oyarzun Arenas (Chillán)</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>12000</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -10251,9 +10927,19 @@
       <c r="G156" t="n">
         <v>2</v>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Mendez Chavez I. N. (Bol)</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano de Mérida (Mérida)</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>43200</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -10309,9 +10995,19 @@
       <c r="G157" t="n">
         <v>3</v>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Mendez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>38000</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -10367,9 +11063,19 @@
       <c r="G158" t="n">
         <v>3</v>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Menendez A. (Per)</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>44164</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
